--- a/data/Subset1_WithDialogActs/Fraction as Number 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Fraction as Number 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
